--- a/linkml/source_tables/INQUIRE/BiomarkerList_v2.25_ISS.xlsx
+++ b/linkml/source_tables/INQUIRE/BiomarkerList_v2.25_ISS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamiceli_annalaura\OneDrive - Istituto Superiore di Sanità\Documenti\INQUIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/dirk_devriendt_ext_vito_be/Documents/Documents/git/parco-hbm/linkml/source_tables/INQUIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4B098F9B1B0ACD406B9C337D3DC91E13C6447512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3C9B15-5CF1-4962-AE1B-A2FEC378C09A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6900" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="-29100" yWindow="-8235" windowWidth="28800" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="2" r:id="rId1"/>
@@ -24,14 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -5751,7 +5744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5996,8 +5989,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6308,20 +6301,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="130" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6329,7 +6322,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6339,7 +6332,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1827</v>
       </c>
@@ -6349,7 +6342,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1215</v>
       </c>
@@ -6359,7 +6352,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1216</v>
       </c>
@@ -6369,7 +6362,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>1755</v>
       </c>
@@ -6379,7 +6372,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1826</v>
       </c>
@@ -6389,7 +6382,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1825</v>
       </c>
@@ -6397,7 +6390,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>1756</v>
       </c>
@@ -6405,7 +6398,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -6413,7 +6406,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6421,7 +6414,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
@@ -6431,34 +6424,34 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HBM4EU Aligned Studies,HBM4EU Occupational Studies,HBM4EU MOM Studies,PARC Aligned Studies,DEMOCOPHES,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Children,Teenagers,Adults"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"AL,AT,BA,BE,BG,CH,CY,CZ,DE,DK,EE,EL,ES,FI,FR,HR,HU,IE,IL,IS,IT,LI,LT,LU,LV,MD,ME,MK,MT,NL,NO,PL,PT,RO,RS,SE,SI,SK,TR,UA,UK"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6466,28 +6459,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S566" sqref="S566"/>
+      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E553" sqref="E553:E583"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.7109375" customWidth="1"/>
-    <col min="3" max="3" width="114.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="25" customWidth="1"/>
-    <col min="16" max="26" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.6640625" customWidth="1"/>
+    <col min="3" max="3" width="114.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="25" customWidth="1"/>
+    <col min="16" max="26" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="198" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
@@ -6567,7 +6560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>923</v>
       </c>
@@ -6584,7 +6577,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>923</v>
       </c>
@@ -6601,7 +6594,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>923</v>
       </c>
@@ -6618,7 +6611,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>923</v>
       </c>
@@ -6635,7 +6628,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>923</v>
       </c>
@@ -6652,7 +6645,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>1218</v>
       </c>
@@ -6667,7 +6660,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>759</v>
       </c>
@@ -6684,7 +6677,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>759</v>
       </c>
@@ -6701,7 +6694,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>759</v>
       </c>
@@ -6718,7 +6711,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>759</v>
       </c>
@@ -6735,7 +6728,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>759</v>
       </c>
@@ -6752,7 +6745,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>759</v>
       </c>
@@ -6769,7 +6762,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>759</v>
       </c>
@@ -6786,7 +6779,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>759</v>
       </c>
@@ -6803,7 +6796,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>759</v>
       </c>
@@ -6820,7 +6813,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>759</v>
       </c>
@@ -6837,7 +6830,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>759</v>
       </c>
@@ -6854,7 +6847,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>759</v>
       </c>
@@ -6871,7 +6864,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>759</v>
       </c>
@@ -6888,7 +6881,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>759</v>
       </c>
@@ -6905,7 +6898,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>759</v>
       </c>
@@ -6922,7 +6915,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>759</v>
       </c>
@@ -6939,7 +6932,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>759</v>
       </c>
@@ -6956,7 +6949,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>759</v>
       </c>
@@ -6973,7 +6966,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>759</v>
       </c>
@@ -6990,7 +6983,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>759</v>
       </c>
@@ -7007,7 +7000,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>759</v>
       </c>
@@ -7024,7 +7017,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>759</v>
       </c>
@@ -7041,7 +7034,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>759</v>
       </c>
@@ -7058,7 +7051,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>759</v>
       </c>
@@ -7075,7 +7068,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>759</v>
       </c>
@@ -7092,7 +7085,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>759</v>
       </c>
@@ -7109,7 +7102,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>759</v>
       </c>
@@ -7126,7 +7119,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>759</v>
       </c>
@@ -7143,7 +7136,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>759</v>
       </c>
@@ -7160,7 +7153,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>1711</v>
       </c>
@@ -7177,7 +7170,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>1711</v>
       </c>
@@ -7194,7 +7187,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>1711</v>
       </c>
@@ -7211,7 +7204,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7228,7 +7221,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7245,7 +7238,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7262,7 +7255,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7279,7 +7272,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7296,7 +7289,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7313,7 +7306,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7330,7 +7323,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7347,7 +7340,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>1124</v>
       </c>
@@ -7364,7 +7357,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>534</v>
       </c>
@@ -7381,7 +7374,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>534</v>
       </c>
@@ -7398,7 +7391,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>534</v>
       </c>
@@ -7415,7 +7408,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>534</v>
       </c>
@@ -7432,7 +7425,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>534</v>
       </c>
@@ -7449,7 +7442,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>534</v>
       </c>
@@ -7466,7 +7459,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>534</v>
       </c>
@@ -7483,7 +7476,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>534</v>
       </c>
@@ -7500,7 +7493,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>534</v>
       </c>
@@ -7517,7 +7510,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>534</v>
       </c>
@@ -7534,7 +7527,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>534</v>
       </c>
@@ -7551,7 +7544,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>534</v>
       </c>
@@ -7568,7 +7561,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>534</v>
       </c>
@@ -7585,7 +7578,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>534</v>
       </c>
@@ -7602,7 +7595,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>534</v>
       </c>
@@ -7619,7 +7612,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>534</v>
       </c>
@@ -7636,7 +7629,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>534</v>
       </c>
@@ -7653,7 +7646,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>534</v>
       </c>
@@ -7670,7 +7663,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>534</v>
       </c>
@@ -7687,7 +7680,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>534</v>
       </c>
@@ -7704,7 +7697,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>534</v>
       </c>
@@ -7721,7 +7714,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1893</v>
       </c>
@@ -7735,7 +7728,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>1156</v>
       </c>
@@ -7752,7 +7745,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>1156</v>
       </c>
@@ -7769,7 +7762,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>1156</v>
       </c>
@@ -7786,7 +7779,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>1156</v>
       </c>
@@ -7803,7 +7796,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>1156</v>
       </c>
@@ -7820,7 +7813,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>1156</v>
       </c>
@@ -7837,7 +7830,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>208</v>
       </c>
@@ -7854,7 +7847,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>208</v>
       </c>
@@ -7871,7 +7864,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>208</v>
       </c>
@@ -7888,7 +7881,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>208</v>
       </c>
@@ -7905,7 +7898,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>1234</v>
       </c>
@@ -7920,7 +7913,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>1234</v>
       </c>
@@ -7935,7 +7928,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>1234</v>
       </c>
@@ -7950,7 +7943,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>1234</v>
       </c>
@@ -7965,7 +7958,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>1234</v>
       </c>
@@ -7980,7 +7973,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>1234</v>
       </c>
@@ -7995,7 +7988,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>1234</v>
       </c>
@@ -8008,7 +8001,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>1676</v>
       </c>
@@ -8025,7 +8018,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>334</v>
       </c>
@@ -8042,7 +8035,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>334</v>
       </c>
@@ -8059,7 +8052,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>334</v>
       </c>
@@ -8076,7 +8069,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>334</v>
       </c>
@@ -8093,7 +8086,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>334</v>
       </c>
@@ -8110,7 +8103,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>334</v>
       </c>
@@ -8127,7 +8120,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>334</v>
       </c>
@@ -8144,7 +8137,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>334</v>
       </c>
@@ -8159,7 +8152,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>334</v>
       </c>
@@ -8174,7 +8167,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>334</v>
       </c>
@@ -8189,7 +8182,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>334</v>
       </c>
@@ -8204,7 +8197,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>334</v>
       </c>
@@ -8221,7 +8214,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>334</v>
       </c>
@@ -8238,7 +8231,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>334</v>
       </c>
@@ -8255,7 +8248,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>334</v>
       </c>
@@ -8272,7 +8265,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>334</v>
       </c>
@@ -8289,7 +8282,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>334</v>
       </c>
@@ -8306,7 +8299,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>334</v>
       </c>
@@ -8323,7 +8316,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>334</v>
       </c>
@@ -8340,7 +8333,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>334</v>
       </c>
@@ -8357,7 +8350,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>334</v>
       </c>
@@ -8374,7 +8367,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>334</v>
       </c>
@@ -8391,7 +8384,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>334</v>
       </c>
@@ -8408,7 +8401,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>334</v>
       </c>
@@ -8425,7 +8418,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>334</v>
       </c>
@@ -8442,7 +8435,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>334</v>
       </c>
@@ -8459,7 +8452,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>334</v>
       </c>
@@ -8476,7 +8469,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>334</v>
       </c>
@@ -8493,7 +8486,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>334</v>
       </c>
@@ -8510,7 +8503,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>334</v>
       </c>
@@ -8527,7 +8520,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>334</v>
       </c>
@@ -8544,7 +8537,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>334</v>
       </c>
@@ -8561,7 +8554,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>334</v>
       </c>
@@ -8578,7 +8571,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>334</v>
       </c>
@@ -8595,7 +8588,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>334</v>
       </c>
@@ -8612,7 +8605,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>334</v>
       </c>
@@ -8629,7 +8622,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>334</v>
       </c>
@@ -8644,7 +8637,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>334</v>
       </c>
@@ -8661,7 +8654,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>334</v>
       </c>
@@ -8678,7 +8671,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>334</v>
       </c>
@@ -8695,7 +8688,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>334</v>
       </c>
@@ -8712,7 +8705,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>334</v>
       </c>
@@ -8729,7 +8722,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>334</v>
       </c>
@@ -8746,7 +8739,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>334</v>
       </c>
@@ -8763,7 +8756,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>334</v>
       </c>
@@ -8780,7 +8773,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>334</v>
       </c>
@@ -8797,7 +8790,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>334</v>
       </c>
@@ -8814,7 +8807,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>334</v>
       </c>
@@ -8831,7 +8824,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>334</v>
       </c>
@@ -8848,7 +8841,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>334</v>
       </c>
@@ -8865,7 +8858,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>334</v>
       </c>
@@ -8882,7 +8875,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>334</v>
       </c>
@@ -8899,7 +8892,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>334</v>
       </c>
@@ -8914,7 +8907,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>334</v>
       </c>
@@ -8931,7 +8924,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>334</v>
       </c>
@@ -8948,7 +8941,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>334</v>
       </c>
@@ -8965,7 +8958,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>334</v>
       </c>
@@ -8982,7 +8975,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>334</v>
       </c>
@@ -8999,7 +8992,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>334</v>
       </c>
@@ -9016,7 +9009,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>334</v>
       </c>
@@ -9033,7 +9026,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>334</v>
       </c>
@@ -9050,7 +9043,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>334</v>
       </c>
@@ -9067,7 +9060,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>334</v>
       </c>
@@ -9084,7 +9077,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>334</v>
       </c>
@@ -9101,7 +9094,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>334</v>
       </c>
@@ -9118,7 +9111,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>334</v>
       </c>
@@ -9135,7 +9128,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>334</v>
       </c>
@@ -9152,7 +9145,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>334</v>
       </c>
@@ -9169,7 +9162,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9184,7 +9177,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9199,7 +9192,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9214,7 +9207,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9229,7 +9222,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9244,7 +9237,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9259,7 +9252,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9274,7 +9267,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9289,7 +9282,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9304,7 +9297,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>1277</v>
       </c>
@@ -9319,7 +9312,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9334,7 +9327,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9349,7 +9342,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9364,7 +9357,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9379,7 +9372,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9394,7 +9387,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9409,7 +9402,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9424,7 +9417,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>1311</v>
       </c>
@@ -9439,7 +9432,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9454,7 +9447,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9469,7 +9462,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9484,7 +9477,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9499,7 +9492,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9514,7 +9507,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9529,7 +9522,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9545,7 +9538,7 @@
       </c>
       <c r="O181" s="26"/>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9560,7 +9553,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9575,7 +9568,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9590,7 +9583,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9605,7 +9598,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9620,7 +9613,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9635,7 +9628,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9650,7 +9643,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9665,7 +9658,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9680,7 +9673,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9695,7 +9688,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9708,7 +9701,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9723,7 +9716,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>1312</v>
       </c>
@@ -9738,7 +9731,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>857</v>
       </c>
@@ -9753,7 +9746,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>857</v>
       </c>
@@ -9768,7 +9761,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>857</v>
       </c>
@@ -9785,7 +9778,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>857</v>
       </c>
@@ -9802,7 +9795,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>857</v>
       </c>
@@ -9819,7 +9812,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>857</v>
       </c>
@@ -9834,7 +9827,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>857</v>
       </c>
@@ -9849,7 +9842,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>857</v>
       </c>
@@ -9864,7 +9857,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>857</v>
       </c>
@@ -9879,7 +9872,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>857</v>
       </c>
@@ -9893,7 +9886,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>857</v>
       </c>
@@ -9908,7 +9901,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>857</v>
       </c>
@@ -9925,7 +9918,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>857</v>
       </c>
@@ -9940,7 +9933,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>857</v>
       </c>
@@ -9957,7 +9950,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>857</v>
       </c>
@@ -9974,7 +9967,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>857</v>
       </c>
@@ -9988,7 +9981,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>857</v>
       </c>
@@ -10003,7 +9996,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>857</v>
       </c>
@@ -10018,7 +10011,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>857</v>
       </c>
@@ -10035,7 +10028,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>857</v>
       </c>
@@ -10050,7 +10043,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>857</v>
       </c>
@@ -10067,7 +10060,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>857</v>
       </c>
@@ -10081,7 +10074,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>857</v>
       </c>
@@ -10098,7 +10091,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>857</v>
       </c>
@@ -10113,7 +10106,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>857</v>
       </c>
@@ -10128,7 +10121,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>857</v>
       </c>
@@ -10143,7 +10136,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>857</v>
       </c>
@@ -10160,7 +10153,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>857</v>
       </c>
@@ -10175,7 +10168,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>857</v>
       </c>
@@ -10192,7 +10185,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>857</v>
       </c>
@@ -10207,7 +10200,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>857</v>
       </c>
@@ -10222,7 +10215,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>857</v>
       </c>
@@ -10237,7 +10230,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>857</v>
       </c>
@@ -10254,7 +10247,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>857</v>
       </c>
@@ -10269,7 +10262,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>857</v>
       </c>
@@ -10284,7 +10277,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
         <v>857</v>
       </c>
@@ -10299,7 +10292,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>857</v>
       </c>
@@ -10314,7 +10307,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>857</v>
       </c>
@@ -10329,7 +10322,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>857</v>
       </c>
@@ -10346,7 +10339,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>857</v>
       </c>
@@ -10363,7 +10356,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>857</v>
       </c>
@@ -10377,7 +10370,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>857</v>
       </c>
@@ -10392,7 +10385,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>857</v>
       </c>
@@ -10409,7 +10402,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>857</v>
       </c>
@@ -10424,7 +10417,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>857</v>
       </c>
@@ -10439,7 +10432,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>857</v>
       </c>
@@ -10454,7 +10447,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>857</v>
       </c>
@@ -10469,7 +10462,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1853</v>
       </c>
@@ -10483,7 +10476,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1853</v>
       </c>
@@ -10497,7 +10490,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1853</v>
       </c>
@@ -10511,7 +10504,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1853</v>
       </c>
@@ -10525,7 +10518,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>939</v>
       </c>
@@ -10542,7 +10535,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
         <v>939</v>
       </c>
@@ -10559,7 +10552,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>939</v>
       </c>
@@ -10576,7 +10569,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
         <v>939</v>
       </c>
@@ -10593,7 +10586,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>939</v>
       </c>
@@ -10610,7 +10603,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
         <v>939</v>
       </c>
@@ -10627,7 +10620,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="s">
         <v>939</v>
       </c>
@@ -10644,7 +10637,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>939</v>
       </c>
@@ -10661,7 +10654,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>939</v>
       </c>
@@ -10678,7 +10671,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
         <v>939</v>
       </c>
@@ -10695,7 +10688,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
         <v>939</v>
       </c>
@@ -10712,7 +10705,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
         <v>939</v>
       </c>
@@ -10729,7 +10722,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>939</v>
       </c>
@@ -10746,7 +10739,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
         <v>939</v>
       </c>
@@ -10763,7 +10756,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="s">
         <v>939</v>
       </c>
@@ -10780,7 +10773,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>939</v>
       </c>
@@ -10797,7 +10790,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>939</v>
       </c>
@@ -10814,7 +10807,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>939</v>
       </c>
@@ -10831,7 +10824,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>939</v>
       </c>
@@ -10848,7 +10841,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>939</v>
       </c>
@@ -10865,7 +10858,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>939</v>
       </c>
@@ -10882,7 +10875,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
         <v>939</v>
       </c>
@@ -10899,7 +10892,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="12" t="s">
         <v>939</v>
       </c>
@@ -10916,7 +10909,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
         <v>939</v>
       </c>
@@ -10933,7 +10926,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
         <v>939</v>
       </c>
@@ -10950,7 +10943,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>939</v>
       </c>
@@ -10967,7 +10960,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="12" t="s">
         <v>939</v>
       </c>
@@ -10984,7 +10977,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>939</v>
       </c>
@@ -11001,7 +10994,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
         <v>939</v>
       </c>
@@ -11018,7 +11011,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>939</v>
       </c>
@@ -11035,7 +11028,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>939</v>
       </c>
@@ -11052,7 +11045,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
         <v>939</v>
       </c>
@@ -11069,7 +11062,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="12" t="s">
         <v>939</v>
       </c>
@@ -11086,7 +11079,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>939</v>
       </c>
@@ -11103,7 +11096,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="12" t="s">
         <v>939</v>
       </c>
@@ -11120,7 +11113,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>939</v>
       </c>
@@ -11137,7 +11130,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
         <v>939</v>
       </c>
@@ -11154,7 +11147,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="12" t="s">
         <v>939</v>
       </c>
@@ -11171,7 +11164,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12" t="s">
         <v>939</v>
       </c>
@@ -11188,7 +11181,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
         <v>939</v>
       </c>
@@ -11205,7 +11198,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="12" t="s">
         <v>939</v>
       </c>
@@ -11222,7 +11215,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="12" t="s">
         <v>939</v>
       </c>
@@ -11239,7 +11232,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>939</v>
       </c>
@@ -11256,7 +11249,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>939</v>
       </c>
@@ -11273,7 +11266,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>939</v>
       </c>
@@ -11290,7 +11283,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>939</v>
       </c>
@@ -11307,7 +11300,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="12" t="s">
         <v>939</v>
       </c>
@@ -11324,7 +11317,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>939</v>
       </c>
@@ -11341,7 +11334,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
         <v>939</v>
       </c>
@@ -11358,7 +11351,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>939</v>
       </c>
@@ -11375,7 +11368,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11388,7 +11381,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11401,7 +11394,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11416,7 +11409,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11431,7 +11424,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11444,7 +11437,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11459,7 +11452,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11474,7 +11467,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1408</v>
       </c>
@@ -11488,7 +11481,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11503,7 +11496,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>1408</v>
       </c>
@@ -11516,7 +11509,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
         <v>222</v>
       </c>
@@ -11533,7 +11526,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
         <v>222</v>
       </c>
@@ -11550,7 +11543,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="12" t="s">
         <v>222</v>
       </c>
@@ -11567,7 +11560,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="12" t="s">
         <v>222</v>
       </c>
@@ -11584,7 +11577,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="12" t="s">
         <v>222</v>
       </c>
@@ -11601,7 +11594,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="12" t="s">
         <v>222</v>
       </c>
@@ -11618,7 +11611,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="12" t="s">
         <v>222</v>
       </c>
@@ -11635,7 +11628,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="12" t="s">
         <v>222</v>
       </c>
@@ -11652,7 +11645,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="12" t="s">
         <v>222</v>
       </c>
@@ -11669,7 +11662,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="12" t="s">
         <v>222</v>
       </c>
@@ -11686,7 +11679,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="12" t="s">
         <v>222</v>
       </c>
@@ -11703,7 +11696,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>222</v>
       </c>
@@ -11720,7 +11713,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="12" t="s">
         <v>222</v>
       </c>
@@ -11737,7 +11730,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="12" t="s">
         <v>222</v>
       </c>
@@ -11754,7 +11747,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="12" t="s">
         <v>222</v>
       </c>
@@ -11771,7 +11764,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="12" t="s">
         <v>222</v>
       </c>
@@ -11788,7 +11781,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="12" t="s">
         <v>222</v>
       </c>
@@ -11805,7 +11798,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="12" t="s">
         <v>222</v>
       </c>
@@ -11822,7 +11815,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="12" t="s">
         <v>222</v>
       </c>
@@ -11839,7 +11832,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="12" t="s">
         <v>222</v>
       </c>
@@ -11856,7 +11849,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="12" t="s">
         <v>222</v>
       </c>
@@ -11873,7 +11866,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="12" t="s">
         <v>222</v>
       </c>
@@ -11890,7 +11883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="12" t="s">
         <v>222</v>
       </c>
@@ -11907,7 +11900,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="12" t="s">
         <v>222</v>
       </c>
@@ -11924,7 +11917,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="12" t="s">
         <v>222</v>
       </c>
@@ -11941,7 +11934,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="12" t="s">
         <v>222</v>
       </c>
@@ -11958,7 +11951,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
         <v>222</v>
       </c>
@@ -11975,7 +11968,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="12" t="s">
         <v>222</v>
       </c>
@@ -11992,7 +11985,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
         <v>222</v>
       </c>
@@ -12009,7 +12002,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
         <v>222</v>
       </c>
@@ -12026,7 +12019,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
         <v>222</v>
       </c>
@@ -12043,7 +12036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
         <v>222</v>
       </c>
@@ -12060,7 +12053,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>222</v>
       </c>
@@ -12077,7 +12070,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
         <v>222</v>
       </c>
@@ -12094,7 +12087,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>222</v>
       </c>
@@ -12111,7 +12104,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
         <v>222</v>
       </c>
@@ -12128,7 +12121,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
         <v>222</v>
       </c>
@@ -12145,7 +12138,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
         <v>222</v>
       </c>
@@ -12162,7 +12155,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="12" t="s">
         <v>222</v>
       </c>
@@ -12179,7 +12172,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="12" t="s">
         <v>222</v>
       </c>
@@ -12196,7 +12189,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="12" t="s">
         <v>222</v>
       </c>
@@ -12213,7 +12206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
         <v>222</v>
       </c>
@@ -12230,7 +12223,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
         <v>222</v>
       </c>
@@ -12247,7 +12240,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="12" t="s">
         <v>222</v>
       </c>
@@ -12264,7 +12257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
         <v>222</v>
       </c>
@@ -12281,7 +12274,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="12" t="s">
         <v>222</v>
       </c>
@@ -12298,7 +12291,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="12" t="s">
         <v>222</v>
       </c>
@@ -12315,7 +12308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="12" t="s">
         <v>222</v>
       </c>
@@ -12332,7 +12325,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="12" t="s">
         <v>222</v>
       </c>
@@ -12349,7 +12342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="12" t="s">
         <v>222</v>
       </c>
@@ -12366,7 +12359,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="12" t="s">
         <v>222</v>
       </c>
@@ -12383,7 +12376,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="12" t="s">
         <v>222</v>
       </c>
@@ -12400,7 +12393,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="12" t="s">
         <v>222</v>
       </c>
@@ -12417,7 +12410,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="12" t="s">
         <v>222</v>
       </c>
@@ -12434,7 +12427,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="12" t="s">
         <v>1866</v>
       </c>
@@ -12448,7 +12441,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="12" t="s">
         <v>1866</v>
       </c>
@@ -12462,7 +12455,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1866</v>
       </c>
@@ -12476,7 +12469,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12491,7 +12484,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12506,7 +12499,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12521,7 +12514,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12538,7 +12531,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12551,7 +12544,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12566,7 +12559,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12581,7 +12574,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12596,7 +12589,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12611,7 +12604,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12626,7 +12619,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12639,7 +12632,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12654,7 +12647,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12671,7 +12664,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12686,7 +12679,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12701,7 +12694,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12714,7 +12707,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12731,7 +12724,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12748,7 +12741,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12765,7 +12758,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12780,7 +12773,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12797,7 +12790,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12814,7 +12807,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12831,7 +12824,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12846,7 +12839,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12861,7 +12854,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12876,7 +12869,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12893,7 +12886,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12908,7 +12901,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12925,7 +12918,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12940,7 +12933,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12955,7 +12948,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12970,7 +12963,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="12" t="s">
         <v>1061</v>
       </c>
@@ -12985,7 +12978,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13000,7 +12993,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13015,7 +13008,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13030,7 +13023,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13043,7 +13036,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13058,7 +13051,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13073,7 +13066,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13088,7 +13081,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13103,7 +13096,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13118,7 +13111,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13131,7 +13124,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13146,7 +13139,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13161,7 +13154,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13176,7 +13169,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13191,7 +13184,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13204,7 +13197,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13221,7 +13214,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13236,7 +13229,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13249,7 +13242,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13264,7 +13257,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13279,7 +13272,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13294,7 +13287,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="12" t="s">
         <v>1061</v>
       </c>
@@ -13309,7 +13302,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12" t="s">
         <v>1676</v>
       </c>
@@ -13324,7 +13317,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12" t="s">
         <v>1676</v>
       </c>
@@ -13339,7 +13332,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12" t="s">
         <v>1676</v>
       </c>
@@ -13354,7 +13347,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13371,7 +13364,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13388,7 +13381,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13405,7 +13398,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13422,7 +13415,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13439,7 +13432,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13456,7 +13449,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12" t="s">
         <v>1099</v>
       </c>
@@ -13473,7 +13466,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12" t="s">
         <v>32</v>
       </c>
@@ -13490,7 +13483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="12" t="s">
         <v>32</v>
       </c>
@@ -13507,7 +13500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="12" t="s">
         <v>32</v>
       </c>
@@ -13524,7 +13517,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="12" t="s">
         <v>32</v>
       </c>
@@ -13541,7 +13534,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="12" t="s">
         <v>32</v>
       </c>
@@ -13558,7 +13551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="12" t="s">
         <v>32</v>
       </c>
@@ -13575,7 +13568,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="12" t="s">
         <v>32</v>
       </c>
@@ -13592,7 +13585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="12" t="s">
         <v>32</v>
       </c>
@@ -13609,7 +13602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="12" t="s">
         <v>32</v>
       </c>
@@ -13626,7 +13619,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="12" t="s">
         <v>32</v>
       </c>
@@ -13643,7 +13636,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="12" t="s">
         <v>32</v>
       </c>
@@ -13660,7 +13653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="12" t="s">
         <v>32</v>
       </c>
@@ -13677,7 +13670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="12" t="s">
         <v>32</v>
       </c>
@@ -13694,7 +13687,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="12" t="s">
         <v>32</v>
       </c>
@@ -13711,7 +13704,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="12" t="s">
         <v>32</v>
       </c>
@@ -13728,7 +13721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="12" t="s">
         <v>32</v>
       </c>
@@ -13745,7 +13738,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="12" t="s">
         <v>32</v>
       </c>
@@ -13762,7 +13755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="12" t="s">
         <v>32</v>
       </c>
@@ -13779,7 +13772,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="12" t="s">
         <v>32</v>
       </c>
@@ -13796,7 +13789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="12" t="s">
         <v>32</v>
       </c>
@@ -13813,7 +13806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="12" t="s">
         <v>32</v>
       </c>
@@ -13830,7 +13823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="12" t="s">
         <v>32</v>
       </c>
@@ -13847,7 +13840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="12" t="s">
         <v>32</v>
       </c>
@@ -13864,7 +13857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="12" t="s">
         <v>32</v>
       </c>
@@ -13881,7 +13874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="12" t="s">
         <v>32</v>
       </c>
@@ -13898,7 +13891,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="12" t="s">
         <v>32</v>
       </c>
@@ -13915,7 +13908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="12" t="s">
         <v>32</v>
       </c>
@@ -13932,7 +13925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="12" t="s">
         <v>32</v>
       </c>
@@ -13949,7 +13942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="12" t="s">
         <v>32</v>
       </c>
@@ -13966,7 +13959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12" t="s">
         <v>32</v>
       </c>
@@ -13983,7 +13976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="12" t="s">
         <v>32</v>
       </c>
@@ -14000,7 +13993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="12" t="s">
         <v>32</v>
       </c>
@@ -14017,7 +14010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="12" t="s">
         <v>32</v>
       </c>
@@ -14034,7 +14027,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="12" t="s">
         <v>32</v>
       </c>
@@ -14051,7 +14044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="12" t="s">
         <v>32</v>
       </c>
@@ -14068,7 +14061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="12" t="s">
         <v>32</v>
       </c>
@@ -14085,7 +14078,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="12" t="s">
         <v>32</v>
       </c>
@@ -14102,7 +14095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="12" t="s">
         <v>32</v>
       </c>
@@ -14119,7 +14112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="12" t="s">
         <v>32</v>
       </c>
@@ -14136,7 +14129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="12" t="s">
         <v>32</v>
       </c>
@@ -14153,7 +14146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="12" t="s">
         <v>32</v>
       </c>
@@ -14170,7 +14163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="12" t="s">
         <v>32</v>
       </c>
@@ -14187,7 +14180,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="12" t="s">
         <v>32</v>
       </c>
@@ -14204,7 +14197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="12" t="s">
         <v>32</v>
       </c>
@@ -14221,7 +14214,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="12" t="s">
         <v>32</v>
       </c>
@@ -14238,7 +14231,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="12" t="s">
         <v>32</v>
       </c>
@@ -14255,7 +14248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="12" t="s">
         <v>32</v>
       </c>
@@ -14272,7 +14265,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="12" t="s">
         <v>32</v>
       </c>
@@ -14289,7 +14282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="12" t="s">
         <v>32</v>
       </c>
@@ -14306,7 +14299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="12" t="s">
         <v>32</v>
       </c>
@@ -14323,7 +14316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="12" t="s">
         <v>32</v>
       </c>
@@ -14340,7 +14333,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14355,7 +14348,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14370,7 +14363,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14385,7 +14378,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14400,7 +14393,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14415,7 +14408,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14430,7 +14423,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14445,7 +14438,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14460,7 +14453,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14475,7 +14468,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14490,7 +14483,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14505,7 +14498,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14520,7 +14513,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14535,7 +14528,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14550,7 +14543,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14565,7 +14558,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14580,7 +14573,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14595,7 +14588,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14610,7 +14603,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14625,7 +14618,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14640,7 +14633,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14655,7 +14648,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14670,7 +14663,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14685,7 +14678,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14700,7 +14693,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14715,7 +14708,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14730,7 +14723,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14745,7 +14738,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14760,7 +14753,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14775,7 +14768,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14790,7 +14783,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14805,7 +14798,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14820,7 +14813,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14835,7 +14828,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14850,7 +14843,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14865,7 +14858,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14880,7 +14873,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14895,7 +14888,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14910,7 +14903,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14925,7 +14918,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14940,7 +14933,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14955,7 +14948,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14970,7 +14963,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="12" t="s">
         <v>1566</v>
       </c>
@@ -14985,7 +14978,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="12" t="s">
         <v>1566</v>
       </c>
@@ -15000,7 +14993,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="12" t="s">
         <v>1566</v>
       </c>
@@ -15015,7 +15008,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="12" t="s">
         <v>1566</v>
       </c>
@@ -15030,7 +15023,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="12" t="s">
         <v>1566</v>
       </c>
@@ -15045,7 +15038,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="12" t="s">
         <v>1566</v>
       </c>
@@ -15060,7 +15053,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="12" t="s">
         <v>605</v>
       </c>
@@ -15077,7 +15070,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="12" t="s">
         <v>605</v>
       </c>
@@ -15094,7 +15087,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="12" t="s">
         <v>605</v>
       </c>
@@ -15111,7 +15104,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="12" t="s">
         <v>605</v>
       </c>
@@ -15128,7 +15121,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="12" t="s">
         <v>605</v>
       </c>
@@ -15145,7 +15138,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="12" t="s">
         <v>605</v>
       </c>
@@ -15162,7 +15155,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="12" t="s">
         <v>605</v>
       </c>
@@ -15179,7 +15172,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="12" t="s">
         <v>605</v>
       </c>
@@ -15196,7 +15189,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="12" t="s">
         <v>605</v>
       </c>
@@ -15213,7 +15206,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="12" t="s">
         <v>605</v>
       </c>
@@ -15230,7 +15223,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="12" t="s">
         <v>605</v>
       </c>
@@ -15247,7 +15240,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="12" t="s">
         <v>605</v>
       </c>
@@ -15264,7 +15257,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="12" t="s">
         <v>605</v>
       </c>
@@ -15281,7 +15274,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="12" t="s">
         <v>605</v>
       </c>
@@ -15298,7 +15291,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="12" t="s">
         <v>605</v>
       </c>
@@ -15315,7 +15308,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="12" t="s">
         <v>605</v>
       </c>
@@ -15332,7 +15325,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="12" t="s">
         <v>605</v>
       </c>
@@ -15349,7 +15342,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="12" t="s">
         <v>605</v>
       </c>
@@ -15366,7 +15359,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="12" t="s">
         <v>605</v>
       </c>
@@ -15383,7 +15376,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="12" t="s">
         <v>605</v>
       </c>
@@ -15400,7 +15393,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="12" t="s">
         <v>605</v>
       </c>
@@ -15417,7 +15410,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="12" t="s">
         <v>605</v>
       </c>
@@ -15434,7 +15427,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="12" t="s">
         <v>605</v>
       </c>
@@ -15449,7 +15442,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="12" t="s">
         <v>605</v>
       </c>
@@ -15466,7 +15459,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="12" t="s">
         <v>605</v>
       </c>
@@ -15483,7 +15476,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="12" t="s">
         <v>605</v>
       </c>
@@ -15498,7 +15491,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553" s="12" t="s">
         <v>605</v>
       </c>
@@ -15518,7 +15511,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="12" t="s">
         <v>605</v>
       </c>
@@ -15535,7 +15528,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="12" t="s">
         <v>605</v>
       </c>
@@ -15552,7 +15545,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="12" t="s">
         <v>605</v>
       </c>
@@ -15569,7 +15562,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="12" t="s">
         <v>605</v>
       </c>
@@ -15586,7 +15579,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="12" t="s">
         <v>605</v>
       </c>
@@ -15603,7 +15596,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="12" t="s">
         <v>605</v>
       </c>
@@ -15620,7 +15613,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560" s="12" t="s">
         <v>605</v>
       </c>
@@ -15640,7 +15633,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="12" t="s">
         <v>605</v>
       </c>
@@ -15657,7 +15650,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="12" t="s">
         <v>605</v>
       </c>
@@ -15674,7 +15667,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="12" t="s">
         <v>605</v>
       </c>
@@ -15691,7 +15684,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564" s="12" t="s">
         <v>605</v>
       </c>
@@ -15711,7 +15704,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="12" t="s">
         <v>605</v>
       </c>
@@ -15728,7 +15721,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566" s="12" t="s">
         <v>605</v>
       </c>
@@ -15748,7 +15741,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567" s="12" t="s">
         <v>605</v>
       </c>
@@ -15768,7 +15761,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="12" t="s">
         <v>605</v>
       </c>
@@ -15785,7 +15778,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="12" t="s">
         <v>605</v>
       </c>
@@ -15802,7 +15795,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="12" t="s">
         <v>605</v>
       </c>
@@ -15819,7 +15812,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="12" t="s">
         <v>605</v>
       </c>
@@ -15836,7 +15829,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="12" t="s">
         <v>605</v>
       </c>
@@ -15853,7 +15846,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="12" t="s">
         <v>605</v>
       </c>
@@ -15868,7 +15861,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574" s="12" t="s">
         <v>605</v>
       </c>
@@ -15888,7 +15881,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575" s="12" t="s">
         <v>605</v>
       </c>
@@ -15908,7 +15901,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="12" t="s">
         <v>605</v>
       </c>
@@ -15923,7 +15916,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="12" t="s">
         <v>605</v>
       </c>
@@ -15938,7 +15931,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="12" t="s">
         <v>605</v>
       </c>
@@ -15955,7 +15948,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="12" t="s">
         <v>605</v>
       </c>
@@ -15970,7 +15963,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580" s="12" t="s">
         <v>605</v>
       </c>
@@ -15990,7 +15983,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581" s="12" t="s">
         <v>605</v>
       </c>
@@ -16010,7 +16003,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="12" t="s">
         <v>605</v>
       </c>
@@ -16027,7 +16020,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583" s="12" t="s">
         <v>605</v>
       </c>
@@ -16047,7 +16040,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16064,7 +16057,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16081,7 +16074,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16098,7 +16091,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16115,7 +16108,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16132,7 +16125,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16149,7 +16142,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16166,7 +16159,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16183,7 +16176,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16200,7 +16193,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="12" t="s">
         <v>1179</v>
       </c>
@@ -16217,7 +16210,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="12" t="s">
         <v>1885</v>
       </c>
@@ -16229,7 +16222,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z594">
+  <autoFilter ref="A1:Z594" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Polycyclic Aromatic Hydrocarbons (PAHs)"/>
@@ -16240,7 +16233,7 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:Z578">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z578">
       <sortCondition ref="A1:A482"/>
     </sortState>
   </autoFilter>
@@ -16250,7 +16243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16258,13 +16251,13 @@
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1214</v>
       </c>
